--- a/data/outputs/OR_elsevier/55.xlsx
+++ b/data/outputs/OR_elsevier/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS43"/>
+  <dimension ref="A1:BU43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84937512627</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1158,12 @@
           <t>2-s2.0-84939882834</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1395,12 @@
           <t>2-s2.0-84946487941</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1589,6 +1617,12 @@
         <is>
           <t>2-s2.0-84946478034</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1801,6 +1835,12 @@
           <t>2-s2.0-84939964033</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2014,6 +2054,12 @@
           <t>2-s2.0-84939960234</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2235,6 +2281,12 @@
           <t>2-s2.0-84939983980</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2451,6 +2503,12 @@
         <is>
           <t>2-s2.0-84937512549</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84904532402</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2882,6 +2946,12 @@
           <t>2-s2.0-84938979954</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3099,6 +3169,12 @@
           <t>2-s2.0-84923848149</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3335,6 +3411,12 @@
         <is>
           <t>2-s2.0-84942502757</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3553,6 +3635,12 @@
           <t>2-s2.0-84938978806</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3770,6 +3858,12 @@
           <t>2-s2.0-84925464884</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3995,6 +4089,12 @@
           <t>2-s2.0-84922636085</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4224,6 +4324,12 @@
           <t>2-s2.0-84939873026</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4460,6 +4566,12 @@
         <is>
           <t>2-s2.0-84942505912</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4682,6 +4794,12 @@
           <t>2-s2.0-84938963600</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4899,6 +5017,12 @@
           <t>2-s2.0-84937522962</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5116,6 +5240,12 @@
           <t>2-s2.0-84939947045</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5333,6 +5463,12 @@
           <t>2-s2.0-84923849031</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5550,6 +5686,12 @@
           <t>2-s2.0-84905895689</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5770,6 +5912,12 @@
         <is>
           <t>2-s2.0-84930486027</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -5980,6 +6128,12 @@
           <t>2-s2.0-84939971493</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6197,6 +6351,12 @@
           <t>2-s2.0-84926665323</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6418,6 +6578,12 @@
           <t>2-s2.0-84922088649</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6634,6 +6800,12 @@
         <is>
           <t>2-s2.0-84921381668</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -6846,6 +7018,12 @@
           <t>2-s2.0-84946480704</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7071,6 +7249,12 @@
           <t>2-s2.0-84930477022</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7292,6 +7476,12 @@
           <t>2-s2.0-84930486602</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7505,6 +7695,12 @@
           <t>2-s2.0-84939958684</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7730,6 +7926,12 @@
           <t>2-s2.0-84940000102</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7949,6 +8151,12 @@
           <t>2-s2.0-84925484726</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8185,6 +8393,12 @@
         <is>
           <t>2-s2.0-84942504139</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8391,6 +8605,12 @@
           <t>2-s2.0-84942500736</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8632,6 +8852,12 @@
           <t>2-s2.0-84942499819</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8872,6 +9098,12 @@
         <is>
           <t>2-s2.0-84942501269</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -9074,6 +9306,12 @@
           <t>2-s2.0-84937814531</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9293,6 +9531,12 @@
           <t>2-s2.0-84930472481</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9509,6 +9753,12 @@
         <is>
           <t>2-s2.0-84925539385</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9718,6 +9968,12 @@
         <is>
           <t>2-s2.0-84905894165</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9920,6 +10176,12 @@
           <t>2-s2.0-84917708764</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
